--- a/isa/RovLink.xlsx
+++ b/isa/RovLink.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BackupFile\Git_repository\OurEDA\RovLink\isa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3BDADE-F008-4044-8231-06A14DE8339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F4638-D8D4-4B9E-9F15-F957EEFF0965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="218">
   <si>
     <t>数据段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,18 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机械臂1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械臂2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械臂3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>侧扫声呐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +869,10 @@
   </si>
   <si>
     <t>crc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1134,45 +1126,87 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,51 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1525,54 +1514,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="U1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="33"/>
+    </row>
+    <row r="2" spans="3:39" x14ac:dyDescent="0.35">
+      <c r="C2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="U1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="26"/>
-    </row>
-    <row r="2" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C2" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="U2" s="1"/>
       <c r="V2" s="2" t="s">
         <v>5</v>
@@ -1630,24 +1619,24 @@
       </c>
     </row>
     <row r="3" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C3" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="39" t="s">
-        <v>176</v>
+      <c r="K3" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>23</v>
@@ -1686,37 +1675,37 @@
         <v>109</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C4" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="33" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>178</v>
+      <c r="K4" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>27</v>
@@ -1743,38 +1732,38 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C5" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="15">
         <v>4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="15">
         <v>5</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="15">
         <v>6</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="15">
         <v>7</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1803,7 +1792,7 @@
         <v>77</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>78</v>
@@ -1818,17 +1807,17 @@
         <v>89</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="3:39" x14ac:dyDescent="0.35">
       <c r="U6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>32</v>
@@ -1883,57 +1872,57 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="33" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="M8" s="33" t="s">
+      <c r="K8" s="24"/>
+      <c r="M8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="Q8" s="33" t="s">
+      <c r="N8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="Q8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="S8" s="37"/>
+      <c r="R8" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="23"/>
       <c r="U8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -1947,36 +1936,36 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="I9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="I9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="M9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="Q9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="S9" s="31"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="Q9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="S9" s="20"/>
       <c r="U9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1988,7 +1977,7 @@
         <v>91</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2005,38 +1994,38 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="I10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="M10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="Q10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="S10" s="31"/>
+      <c r="C10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="I10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="M10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="Q10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S10" s="20"/>
       <c r="U10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>38</v>
@@ -2049,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -2065,40 +2054,40 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C11" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="I11" s="33" t="s">
+      <c r="C11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="I11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="S11" s="31"/>
+      <c r="Q11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S11" s="20"/>
       <c r="U11" s="1" t="s">
         <v>115</v>
       </c>
@@ -2107,16 +2096,16 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -2131,48 +2120,48 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C12" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="O12" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M12" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="Q12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="Q12" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="S12" s="31"/>
+      <c r="S12" s="20"/>
       <c r="U12" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>40</v>
@@ -2210,17 +2199,17 @@
       <c r="Y13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AA13" s="7" t="s">
         <v>105</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2233,19 +2222,19 @@
       <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C14" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="C14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="U14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>44</v>
@@ -2270,7 +2259,7 @@
         <v>77</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE14" s="8" t="s">
         <v>78</v>
@@ -2288,35 +2277,35 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="K15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>193</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>45</v>
@@ -2339,33 +2328,33 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>92</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>46</v>
@@ -2388,35 +2377,35 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="C17" s="33" t="s">
-        <v>199</v>
+      <c r="C17" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="I17" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>198</v>
-      </c>
       <c r="J17" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>47</v>
@@ -2440,7 +2429,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="U18" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>48</v>
@@ -2461,7 +2450,7 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
@@ -2470,24 +2459,24 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="B20" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
@@ -2496,16 +2485,16 @@
       <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="D21" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="12" t="s">
         <v>50</v>
       </c>
@@ -2525,69 +2514,69 @@
         <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
@@ -2597,16 +2586,16 @@
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="6">
         <v>2</v>
       </c>
@@ -2626,63 +2615,63 @@
         <v>7</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK24" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL24" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="AK24" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL24" s="35"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="AK25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AL25" s="1"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="U27" s="33" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="U27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="V27" s="45" t="s">
+      <c r="V27" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="X27" s="33" t="s">
+      <c r="X27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Y27" s="44" t="s">
+      <c r="Y27" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AF27" s="16" t="s">
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AF27" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -2694,16 +2683,16 @@
       <c r="C28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="D28" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="12" t="s">
         <v>50</v>
       </c>
@@ -2725,90 +2714,90 @@
       <c r="R28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="U28" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="V28" s="33" t="s">
+      <c r="U28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y28" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="X28" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
       <c r="AF28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG28" s="23" t="s">
+      <c r="AG28" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="U29" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="V29" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="X29" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y29" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
       <c r="AF29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG29" s="20" t="s">
+      <c r="AG29" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL29" s="19"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL29" s="35"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
@@ -2818,64 +2807,64 @@
         <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="U30" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="X30" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
+        <v>155</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
       <c r="AF30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AG30" s="20" t="s">
+      <c r="AG30" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="22"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="38"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
@@ -2887,16 +2876,16 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="22">
         <v>2</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="6">
         <v>3</v>
       </c>
@@ -2919,22 +2908,22 @@
         <v>9</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="U31" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="V31" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="X31" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y31" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y31" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
       <c r="AF31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2958,25 +2947,25 @@
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
+      <c r="A34" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -2986,32 +2975,32 @@
         <v>86</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="F35" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="12" t="s">
         <v>50</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>87</v>
@@ -3022,46 +3011,46 @@
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
       <c r="Q36" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG36" s="27" t="s">
+      <c r="AG36" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
@@ -3071,35 +3060,35 @@
         <v>81</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>1</v>
@@ -3139,39 +3128,39 @@
       <c r="E38" s="6">
         <v>3</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="22">
         <v>4</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="6">
         <v>5</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AG38" s="16" t="s">
+      <c r="AG38" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="AF39" s="1" t="s">
@@ -3198,34 +3187,24 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="A34:Q34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="D23:K23"/>
     <mergeCell ref="AG38:AL38"/>
     <mergeCell ref="AG36:AL36"/>
     <mergeCell ref="U1:AL1"/>
@@ -3236,24 +3215,34 @@
     <mergeCell ref="AG30:AJ30"/>
     <mergeCell ref="AK30:AL30"/>
     <mergeCell ref="AG28:AL28"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
